--- a/Matched_Email_Software_Industry_Users.xlsx
+++ b/Matched_Email_Software_Industry_Users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeRepo\JustPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E108D-C2AE-401C-8CD7-F6B2F2FB87A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14272553-D778-4E65-9815-69F02E6E1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,81 +121,6 @@
     <t>104.379.3906x795</t>
   </si>
   <si>
-    <t>alexander.daniels@example.com</t>
-  </si>
-  <si>
-    <t>william.mccarthy@example.com</t>
-  </si>
-  <si>
-    <t>sarah.jones@example.com</t>
-  </si>
-  <si>
-    <t>william.henderson@example.com</t>
-  </si>
-  <si>
-    <t>sarah.jacobs@example.com</t>
-  </si>
-  <si>
-    <t>linda.lee@example.com</t>
-  </si>
-  <si>
-    <t>katrina.juarez@example.com</t>
-  </si>
-  <si>
-    <t>mrs.crawford@example.com</t>
-  </si>
-  <si>
-    <t>justin.jones@example.com</t>
-  </si>
-  <si>
-    <t>maria.holmes@example.com</t>
-  </si>
-  <si>
-    <t>jennifer.luna@example.com</t>
-  </si>
-  <si>
-    <t>jeffery.rodriguez@example.com</t>
-  </si>
-  <si>
-    <t>heather.stewart@example.com</t>
-  </si>
-  <si>
-    <t>amanda.smith@example.com</t>
-  </si>
-  <si>
-    <t>david.haynes@example.com</t>
-  </si>
-  <si>
-    <t>heather.wilson@example.com</t>
-  </si>
-  <si>
-    <t>frank.williams@example.com</t>
-  </si>
-  <si>
-    <t>raymond.phillips@example.com</t>
-  </si>
-  <si>
-    <t>terri.silva@example.com</t>
-  </si>
-  <si>
-    <t>laura.hurst@example.com</t>
-  </si>
-  <si>
-    <t>emily.fitzgerald@example.com</t>
-  </si>
-  <si>
-    <t>joseph.rogers@example.com</t>
-  </si>
-  <si>
-    <t>kim.daniels@example.com</t>
-  </si>
-  <si>
-    <t>joseph.schneider@example.com</t>
-  </si>
-  <si>
-    <t>adam.daniels@example.com</t>
-  </si>
-  <si>
     <t>Solution Architect</t>
   </si>
   <si>
@@ -314,13 +239,88 @@
   </si>
   <si>
     <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>adam.daniels2@example.com</t>
+  </si>
+  <si>
+    <t>justin.jones2@example.com</t>
+  </si>
+  <si>
+    <t>alexander.daniels2@example.com</t>
+  </si>
+  <si>
+    <t>william.henderson2@example.com</t>
+  </si>
+  <si>
+    <t>amanda.smith2@example.com</t>
+  </si>
+  <si>
+    <t>katrina.juarez2@example.com</t>
+  </si>
+  <si>
+    <t>david.haynes2@example.com</t>
+  </si>
+  <si>
+    <t>emily.fitzgerald2@example.com</t>
+  </si>
+  <si>
+    <t>joseph.rogers2@example.com</t>
+  </si>
+  <si>
+    <t>frank.williams2@example.com</t>
+  </si>
+  <si>
+    <t>joseph.schneider2@example.com</t>
+  </si>
+  <si>
+    <t>heather.stewart2@example.com</t>
+  </si>
+  <si>
+    <t>mrs.crawford2@example.com</t>
+  </si>
+  <si>
+    <t>heather.wilson2@example.com</t>
+  </si>
+  <si>
+    <t>jeffery.rodriguez2@example.com</t>
+  </si>
+  <si>
+    <t>jennifer.luna2@example.com</t>
+  </si>
+  <si>
+    <t>kim.daniels2@example.com</t>
+  </si>
+  <si>
+    <t>laura.hurst2@example.com</t>
+  </si>
+  <si>
+    <t>linda.lee2@example.com</t>
+  </si>
+  <si>
+    <t>maria.holmes2@example.com</t>
+  </si>
+  <si>
+    <t>raymond.phillips2@example.com</t>
+  </si>
+  <si>
+    <t>sarah.jacobs2@example.com</t>
+  </si>
+  <si>
+    <t>sarah.jones2@example.com</t>
+  </si>
+  <si>
+    <t>terri.silva2@example.com</t>
+  </si>
+  <si>
+    <t>william.mccarthy2@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +338,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -373,20 +381,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -416,20 +441,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -444,10 +455,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4BD7B5E-28ED-458D-B2E6-F2B2F8CECBD8}" name="Table2" displayName="Table2" ref="A1:F26" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4BD7B5E-28ED-458D-B2E6-F2B2F8CECBD8}" name="Table2" displayName="Table2" ref="A1:F26" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:F26" xr:uid="{F4BD7B5E-28ED-458D-B2E6-F2B2F8CECBD8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
-    <sortCondition ref="D1:D26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+    <sortCondition ref="A1:A26"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3F28942D-0DA2-4AA8-A5BD-74274B711763}" name="Name"/>
@@ -784,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,367 +823,367 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="2">
-        <v>29346</v>
+        <v>36671</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2">
-        <v>33030</v>
+        <v>36692</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2">
-        <v>33426</v>
+        <v>36657</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2">
-        <v>34707</v>
+        <v>36754</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F6" s="2">
-        <v>29260</v>
+        <v>36660</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2">
-        <v>34982</v>
+        <v>36734</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F8" s="2">
-        <v>36657</v>
+        <v>36545</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2">
-        <v>36842</v>
+        <v>33426</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2">
-        <v>36659</v>
+        <v>36663</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2">
-        <v>36660</v>
+        <v>36659</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2">
-        <v>36692</v>
+        <v>36842</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2">
-        <v>36754</v>
+        <v>36645</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2">
-        <v>36663</v>
+        <v>29346</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2">
-        <v>36848</v>
+        <v>34982</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2">
-        <v>36665</v>
+        <v>36793</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2">
-        <v>36545</v>
+        <v>34707</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2">
-        <v>36667</v>
+        <v>36848</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2">
-        <v>36882</v>
+        <v>36667</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1180,16 +1191,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2">
         <v>36822</v>
@@ -1197,127 +1208,130 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2">
-        <v>36793</v>
+        <v>36665</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2">
-        <v>36671</v>
+        <v>36764</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
       </c>
       <c r="F23" s="2">
-        <v>36764</v>
+        <v>29260</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2">
-        <v>36734</v>
+        <v>36705</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2">
-        <v>36705</v>
+        <v>36882</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2">
-        <v>36645</v>
+        <v>33030</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="adam.daniels@example.com" xr:uid="{A1E5F8C8-E275-45B2-8891-EC4AEA37BCC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Matched_Email_Software_Industry_Users.xlsx
+++ b/Matched_Email_Software_Industry_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeRepo\JustPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14272553-D778-4E65-9815-69F02E6E1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD94118-E65C-427A-A64F-E1D6410DE603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -124,18 +124,9 @@
     <t>Solution Architect</t>
   </si>
   <si>
-    <t>Data Scientist</t>
-  </si>
-  <si>
-    <t>UI/UX Designer</t>
-  </si>
-  <si>
     <t>DevOps Engineer</t>
   </si>
   <si>
-    <t>Frontend Developer</t>
-  </si>
-  <si>
     <t>Software Engineer</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>Senior Software Engineer</t>
   </si>
   <si>
-    <t>Business Analyst</t>
-  </si>
-  <si>
     <t>HR Manager</t>
   </si>
   <si>
@@ -229,91 +217,91 @@
     <t>Senior Data Scientist</t>
   </si>
   <si>
-    <t>Senior Business Analyst</t>
-  </si>
-  <si>
     <t>Senior QA Engineer</t>
   </si>
   <si>
-    <t>DevOps Manager</t>
-  </si>
-  <si>
     <t>Date Of Birth</t>
   </si>
   <si>
-    <t>adam.daniels2@example.com</t>
-  </si>
-  <si>
-    <t>justin.jones2@example.com</t>
-  </si>
-  <si>
-    <t>alexander.daniels2@example.com</t>
-  </si>
-  <si>
-    <t>william.henderson2@example.com</t>
-  </si>
-  <si>
-    <t>amanda.smith2@example.com</t>
-  </si>
-  <si>
-    <t>katrina.juarez2@example.com</t>
-  </si>
-  <si>
-    <t>david.haynes2@example.com</t>
-  </si>
-  <si>
-    <t>emily.fitzgerald2@example.com</t>
-  </si>
-  <si>
-    <t>joseph.rogers2@example.com</t>
-  </si>
-  <si>
-    <t>frank.williams2@example.com</t>
-  </si>
-  <si>
-    <t>joseph.schneider2@example.com</t>
-  </si>
-  <si>
-    <t>heather.stewart2@example.com</t>
-  </si>
-  <si>
-    <t>mrs.crawford2@example.com</t>
-  </si>
-  <si>
-    <t>heather.wilson2@example.com</t>
-  </si>
-  <si>
-    <t>jeffery.rodriguez2@example.com</t>
-  </si>
-  <si>
-    <t>jennifer.luna2@example.com</t>
-  </si>
-  <si>
-    <t>kim.daniels2@example.com</t>
-  </si>
-  <si>
-    <t>laura.hurst2@example.com</t>
-  </si>
-  <si>
-    <t>linda.lee2@example.com</t>
-  </si>
-  <si>
-    <t>maria.holmes2@example.com</t>
-  </si>
-  <si>
-    <t>raymond.phillips2@example.com</t>
-  </si>
-  <si>
-    <t>sarah.jacobs2@example.com</t>
-  </si>
-  <si>
-    <t>sarah.jones2@example.com</t>
-  </si>
-  <si>
-    <t>terri.silva2@example.com</t>
-  </si>
-  <si>
-    <t>william.mccarthy2@example.com</t>
+    <t>UI/UX Engineer</t>
+  </si>
+  <si>
+    <t>Business Development Manager</t>
+  </si>
+  <si>
+    <t>adam.daniels5@example.com</t>
+  </si>
+  <si>
+    <t>justin.jones5@example.com</t>
+  </si>
+  <si>
+    <t>alexander.daniels5@example.com</t>
+  </si>
+  <si>
+    <t>william.henderson5@example.com</t>
+  </si>
+  <si>
+    <t>amanda.smith5@example.com</t>
+  </si>
+  <si>
+    <t>katrina.juarez5@example.com</t>
+  </si>
+  <si>
+    <t>david.haynes5@example.com</t>
+  </si>
+  <si>
+    <t>emily.fitzgerald5@example.com</t>
+  </si>
+  <si>
+    <t>joseph.rogers5@example.com</t>
+  </si>
+  <si>
+    <t>frank.williams5@example.com</t>
+  </si>
+  <si>
+    <t>joseph.schneider5@example.com</t>
+  </si>
+  <si>
+    <t>heather.stewart5@example.com</t>
+  </si>
+  <si>
+    <t>mrs.crawford5@example.com</t>
+  </si>
+  <si>
+    <t>heather.wilson5@example.com</t>
+  </si>
+  <si>
+    <t>jeffery.rodriguez5@example.com</t>
+  </si>
+  <si>
+    <t>jennifer.luna5@example.com</t>
+  </si>
+  <si>
+    <t>kim.daniels5@example.com</t>
+  </si>
+  <si>
+    <t>laura.hurst5@example.com</t>
+  </si>
+  <si>
+    <t>linda.lee5@example.com</t>
+  </si>
+  <si>
+    <t>maria.holmes5@example.com</t>
+  </si>
+  <si>
+    <t>raymond.phillips5@example.com</t>
+  </si>
+  <si>
+    <t>sarah.jacobs5@example.com</t>
+  </si>
+  <si>
+    <t>sarah.jones5@example.com</t>
+  </si>
+  <si>
+    <t>terri.silva5@example.com</t>
+  </si>
+  <si>
+    <t>william.mccarthy5@example.com</t>
   </si>
 </sst>
 </file>
@@ -796,7 +784,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -834,16 +822,16 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2">
         <v>36671</v>
@@ -854,16 +842,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2">
         <v>36692</v>
@@ -874,16 +862,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2">
         <v>36657</v>
@@ -894,16 +882,16 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2">
         <v>36754</v>
@@ -914,16 +902,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2">
         <v>36660</v>
@@ -937,13 +925,13 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2">
         <v>36734</v>
@@ -954,16 +942,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2">
         <v>36545</v>
@@ -974,16 +962,16 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2">
         <v>33426</v>
@@ -994,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" s="2">
         <v>36663</v>
@@ -1014,16 +1002,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2">
         <v>36659</v>
@@ -1034,16 +1022,16 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2">
         <v>36842</v>
@@ -1057,13 +1045,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
       </c>
       <c r="F13" s="2">
         <v>36645</v>
@@ -1074,13 +1062,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2">
         <v>29346</v>
@@ -1091,16 +1079,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2">
         <v>34982</v>
@@ -1111,16 +1099,16 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2">
         <v>36793</v>
@@ -1131,16 +1119,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2">
         <v>34707</v>
@@ -1151,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2">
         <v>36848</v>
@@ -1171,16 +1159,16 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2">
         <v>36667</v>
@@ -1191,16 +1179,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2">
         <v>36822</v>
@@ -1211,16 +1199,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2">
         <v>36665</v>
@@ -1234,10 +1222,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2">
         <v>36764</v>
@@ -1248,16 +1236,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F23" s="2">
         <v>29260</v>
@@ -1271,13 +1259,13 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F24" s="2">
         <v>36705</v>
@@ -1288,16 +1276,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2">
         <v>36882</v>
@@ -1308,16 +1296,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F26" s="2">
         <v>33030</v>
@@ -1326,7 +1314,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="adam.daniels@example.com" xr:uid="{A1E5F8C8-E275-45B2-8891-EC4AEA37BCC0}"/>
+    <hyperlink ref="C2" r:id="rId1" display="adam.daniels4@example.com" xr:uid="{A1E5F8C8-E275-45B2-8891-EC4AEA37BCC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Matched_Email_Software_Industry_Users.xlsx
+++ b/Matched_Email_Software_Industry_Users.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeRepo\JustPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD94118-E65C-427A-A64F-E1D6410DE603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F88C32D-BE59-4662-A1D7-7A7ADA60771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -229,79 +240,79 @@
     <t>Business Development Manager</t>
   </si>
   <si>
-    <t>adam.daniels5@example.com</t>
-  </si>
-  <si>
-    <t>justin.jones5@example.com</t>
-  </si>
-  <si>
-    <t>alexander.daniels5@example.com</t>
-  </si>
-  <si>
-    <t>william.henderson5@example.com</t>
-  </si>
-  <si>
-    <t>amanda.smith5@example.com</t>
-  </si>
-  <si>
-    <t>katrina.juarez5@example.com</t>
-  </si>
-  <si>
-    <t>david.haynes5@example.com</t>
-  </si>
-  <si>
-    <t>emily.fitzgerald5@example.com</t>
-  </si>
-  <si>
-    <t>joseph.rogers5@example.com</t>
-  </si>
-  <si>
-    <t>frank.williams5@example.com</t>
-  </si>
-  <si>
-    <t>joseph.schneider5@example.com</t>
-  </si>
-  <si>
-    <t>heather.stewart5@example.com</t>
-  </si>
-  <si>
-    <t>mrs.crawford5@example.com</t>
-  </si>
-  <si>
-    <t>heather.wilson5@example.com</t>
-  </si>
-  <si>
-    <t>jeffery.rodriguez5@example.com</t>
-  </si>
-  <si>
-    <t>jennifer.luna5@example.com</t>
-  </si>
-  <si>
-    <t>kim.daniels5@example.com</t>
-  </si>
-  <si>
-    <t>laura.hurst5@example.com</t>
-  </si>
-  <si>
-    <t>linda.lee5@example.com</t>
-  </si>
-  <si>
-    <t>maria.holmes5@example.com</t>
-  </si>
-  <si>
-    <t>raymond.phillips5@example.com</t>
-  </si>
-  <si>
-    <t>sarah.jacobs5@example.com</t>
-  </si>
-  <si>
-    <t>sarah.jones5@example.com</t>
-  </si>
-  <si>
-    <t>terri.silva5@example.com</t>
-  </si>
-  <si>
-    <t>william.mccarthy5@example.com</t>
+    <t>adam.daniels1@example.com</t>
+  </si>
+  <si>
+    <t>justin.jones1@example.com</t>
+  </si>
+  <si>
+    <t>alexander.daniels1@example.com</t>
+  </si>
+  <si>
+    <t>william.henderson1@example.com</t>
+  </si>
+  <si>
+    <t>amanda.smith1@example.com</t>
+  </si>
+  <si>
+    <t>katrina.juarez1@example.com</t>
+  </si>
+  <si>
+    <t>david.haynes1@example.com</t>
+  </si>
+  <si>
+    <t>emily.fitzgerald1@example.com</t>
+  </si>
+  <si>
+    <t>joseph.rogers1@example.com</t>
+  </si>
+  <si>
+    <t>frank.williams1@example.com</t>
+  </si>
+  <si>
+    <t>joseph.schneider1@example.com</t>
+  </si>
+  <si>
+    <t>heather.stewart1@example.com</t>
+  </si>
+  <si>
+    <t>mrs.crawford1@example.com</t>
+  </si>
+  <si>
+    <t>heather.wilson1@example.com</t>
+  </si>
+  <si>
+    <t>jeffery.rodriguez1@example.com</t>
+  </si>
+  <si>
+    <t>jennifer.luna1@example.com</t>
+  </si>
+  <si>
+    <t>kim.daniels1@example.com</t>
+  </si>
+  <si>
+    <t>laura.hurst1@example.com</t>
+  </si>
+  <si>
+    <t>linda.lee1@example.com</t>
+  </si>
+  <si>
+    <t>maria.holmes1@example.com</t>
+  </si>
+  <si>
+    <t>raymond.phillips1@example.com</t>
+  </si>
+  <si>
+    <t>sarah.jacobs1@example.com</t>
+  </si>
+  <si>
+    <t>sarah.jones1@example.com</t>
+  </si>
+  <si>
+    <t>terri.silva1@example.com</t>
+  </si>
+  <si>
+    <t>william.mccarthy1@example.com</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1325,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="adam.daniels4@example.com" xr:uid="{A1E5F8C8-E275-45B2-8891-EC4AEA37BCC0}"/>
+    <hyperlink ref="C2" r:id="rId1" display="adam.daniels5@example.com" xr:uid="{A1E5F8C8-E275-45B2-8891-EC4AEA37BCC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
